--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0F6CFDCE8F79A8D366075C52F3CCC231EC28E609" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85011F45-DB3D-4D6F-A68F-3299AD88397F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_ED69FDCE8F79A8D366075C52F3EC2AB2AF7BF005" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B26DD95-8AA2-42E8-B72E-1996B78A2D2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>year</t>
   </si>
@@ -41,10 +41,13 @@
     <t>papers</t>
   </si>
   <si>
-    <t>authors</t>
+    <t>total_authors</t>
   </si>
   <si>
     <t>authors_LA</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
   <si>
     <t>First_authors_Eur</t>
@@ -140,18 +143,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,12 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +506,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +539,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,22 +557,29 @@
         <v>7</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>C2/B2</f>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>E2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -582,22 +591,29 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I22" si="0">C3/B3</f>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J22" si="0">C3/B3</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K22" si="1">E3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -612,19 +628,26 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -636,22 +659,29 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -663,22 +693,29 @@
         <v>8</v>
       </c>
       <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -690,22 +727,29 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -717,22 +761,29 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -744,22 +795,29 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -771,22 +829,29 @@
         <v>14</v>
       </c>
       <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>2.4285714285714284</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -798,22 +863,29 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>3.4545454545454546</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -825,22 +897,29 @@
         <v>49</v>
       </c>
       <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>16</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>3.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -852,22 +931,29 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -879,22 +965,29 @@
         <v>62</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>18</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>33</v>
@@ -906,22 +999,29 @@
         <v>76</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>2.7878787878787881</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -933,22 +1033,29 @@
         <v>132</v>
       </c>
       <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>46</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>2.9629629629629628</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>41</v>
@@ -960,22 +1067,29 @@
         <v>138</v>
       </c>
       <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>33</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>4.7073170731707314</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.68292682926829273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>35</v>
@@ -987,22 +1101,29 @@
         <v>101</v>
       </c>
       <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>29</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>3.7142857142857144</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>47</v>
@@ -1014,22 +1135,29 @@
         <v>140</v>
       </c>
       <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>38</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>3.8085106382978724</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.36170212765957449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>46</v>
@@ -1041,22 +1169,29 @@
         <v>141</v>
       </c>
       <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>4.4782608695652177</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.45652173913043476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>38</v>
@@ -1068,22 +1203,29 @@
         <v>140</v>
       </c>
       <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>33</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>4.6315789473684212</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>49</v>
@@ -1095,29 +1237,44 @@
         <v>170</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>4.9795918367346941</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I24">
-        <f>MIN(I2:I22)</f>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>MIN(J2:J22)</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I25">
-        <f>MAX(I2:I22)</f>
+      <c r="K23">
+        <f>MIN(K2:K22)</f>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f>MAX(J2:J22)</f>
         <v>4.9795918367346941</v>
+      </c>
+      <c r="K24">
+        <f>MAX(K2:K22)</f>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
